--- a/ИТ/Панков Вася Крутой.xlsx
+++ b/ИТ/Панков Вася Крутой.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,17 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
-    <pivotCache cacheId="22" r:id="rId7"/>
-    <pivotCache cacheId="28" r:id="rId8"/>
-    <pivotCache cacheId="36" r:id="rId9"/>
-    <pivotCache cacheId="45" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="47">
   <si>
     <t>Иванов</t>
   </si>
@@ -145,12 +145,6 @@
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Первый тур</t>
-  </si>
-  <si>
-    <t>Второй тур</t>
-  </si>
-  <si>
     <t>Гайкин</t>
   </si>
   <si>
@@ -163,16 +157,16 @@
     <t>Челноков</t>
   </si>
   <si>
-    <t>Сумма по полю Второй тур</t>
+    <t>Количество по полю Фамилия</t>
   </si>
   <si>
-    <t>Сумма по полю Первый тур</t>
+    <t>Балл</t>
   </si>
   <si>
-    <t>Сумма</t>
+    <t>1-5</t>
   </si>
   <si>
-    <t>Сумма по полю Сумма</t>
+    <t>6-10</t>
   </si>
 </sst>
 </file>
@@ -312,6 +306,252 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[Панков Вася Крутой.xlsx]Лист4!СводнаяТаблица2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист4!$D$3:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[Панков Вася Крутой.xlsx]Индивидуальное задание!СводнаяТаблица7</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
@@ -399,6 +639,120 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -799,7 +1153,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1322,6 +2235,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1602,11 +2550,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Автор" refreshedDate="44624.452318518517" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="5">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Автор" refreshedDate="44631.40173020833" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="5">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:D7" sheet="Лист4" r:id="rId2"/>
+    <worksheetSource ref="A2:B7" sheet="Лист4"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="2">
     <cacheField name="Фамилия" numFmtId="0">
       <sharedItems count="5">
         <s v="Панков"/>
@@ -1616,20 +2564,23 @@
         <s v="Челноков"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Первый тур" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9" count="5">
+    <cacheField name="Балл" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="5">
+        <n v="6"/>
+        <n v="8"/>
         <n v="4"/>
-        <n v="7"/>
+        <n v="3"/>
         <n v="1"/>
-        <n v="5"/>
-        <n v="9"/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="Второй тур" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
-    </cacheField>
-    <cacheField name="Сумма" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15"/>
+      <fieldGroup base="1">
+        <rangePr startNum="1" endNum="8" groupInterval="5"/>
+        <groupItems count="4">
+          <s v="&lt;1"/>
+          <s v="1-5"/>
+          <s v="6-10"/>
+          <s v="&gt;11"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2241,38 +3192,28 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="6"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="8"/>
-    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="4"/>
-    <n v="5"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="3"/>
-    <n v="8"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="1"/>
-    <n v="10"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="I4:P17" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2397,7 +3338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="I3:P18" firstHeaderRow="1" firstDataRow="3" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2535,7 +3476,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:I4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -2598,10 +3539,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица9" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:L8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="D2:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0">
       <items count="6">
         <item x="2"/>
         <item x="1"/>
@@ -2611,61 +3552,47 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="3">
-    <dataField name="Сумма по полю Первый тур" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Второй тур" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Сумма" fld="3" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Количество по полю Фамилия" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2676,7 +3603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица7" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="24">
   <location ref="I3:L9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0">
@@ -2761,7 +3688,7 @@
   <dataFields count="1">
     <dataField name="Сумма по полю Прибыль" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="12">
     <chartFormat chart="12" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2827,6 +3754,96 @@
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="1"/>
@@ -3137,29 +4154,29 @@
       <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.29296875" customWidth="1"/>
+    <col min="6" max="6" width="11.41015625" customWidth="1"/>
+    <col min="9" max="9" width="35.5859375" customWidth="1"/>
+    <col min="10" max="10" width="13.703125" customWidth="1"/>
+    <col min="11" max="15" width="9.29296875" customWidth="1"/>
+    <col min="16" max="16" width="11.87890625" customWidth="1"/>
+    <col min="17" max="17" width="8.1171875" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.41015625" customWidth="1"/>
+    <col min="20" max="20" width="10.5859375" customWidth="1"/>
+    <col min="21" max="21" width="9.41015625" customWidth="1"/>
+    <col min="22" max="22" width="9.703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.87890625" customWidth="1"/>
     <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3182,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +4229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +4253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3314,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3354,7 +4371,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +4408,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3428,7 +4445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3465,7 +4482,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3505,7 +4522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3544,7 +4561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3585,7 +4602,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +4643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3666,7 +4683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +4722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3746,7 +4763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3805,19 +4822,19 @@
       <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.703125" customWidth="1"/>
+    <col min="2" max="2" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.29296875" customWidth="1"/>
+    <col min="8" max="8" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5859375" customWidth="1"/>
+    <col min="11" max="15" width="10.29296875" customWidth="1"/>
+    <col min="16" max="16" width="11.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +4863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +4887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3903,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3936,7 +4953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3982,7 +4999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4023,7 +5040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4061,7 +5078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4102,7 +5119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4142,7 +5159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +5197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4222,7 +5239,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4263,7 +5280,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +5322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +5366,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -4390,7 +5407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4430,7 +5447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +5488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="I18" t="s">
         <v>23</v>
       </c>
@@ -4507,21 +5524,21 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.29296875" customWidth="1"/>
+    <col min="8" max="8" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.703125" customWidth="1"/>
+    <col min="10" max="10" width="7.87890625" customWidth="1"/>
+    <col min="11" max="11" width="5.1171875" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.703125" customWidth="1"/>
+    <col min="15" max="15" width="11.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4550,7 +5567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +5591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4601,7 +5618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4628,7 +5645,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +5670,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +5695,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4703,7 +5720,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4728,7 +5745,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +5770,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4778,7 +5795,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4803,7 +5820,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4828,7 +5845,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4853,7 +5870,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +5895,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -4903,7 +5920,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4928,7 +5945,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -4959,210 +5976,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="26.52734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="1.76171875" customWidth="1"/>
+    <col min="10" max="10" width="10.76171875" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="3.5859375" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="3.5859375" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="3.5859375" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="3.5859375" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="10.76171875" customWidth="1"/>
+    <col min="21" max="21" width="4.5859375" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="10.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <f>B3+C3</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>4</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D7" si="0">B4+C4</f>
-        <v>15</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="9">
-        <v>7</v>
-      </c>
-      <c r="K4" s="9">
-        <v>8</v>
-      </c>
-      <c r="L4" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="9">
-        <v>4</v>
-      </c>
-      <c r="K5" s="9">
-        <v>6</v>
-      </c>
-      <c r="L5" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9">
-        <v>5</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3</v>
-      </c>
-      <c r="L6" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="9">
-        <v>9</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9">
-        <v>26</v>
-      </c>
-      <c r="K8" s="9">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5170,21 +6101,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="72.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.3515625" customWidth="1"/>
+    <col min="10" max="11" width="9.703125" customWidth="1"/>
+    <col min="12" max="12" width="10.76171875" customWidth="1"/>
+    <col min="13" max="14" width="11.87890625" customWidth="1"/>
+    <col min="15" max="15" width="10.29296875" customWidth="1"/>
+    <col min="16" max="16" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="72.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5213,7 +6145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +6172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5273,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5306,7 +6238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5333,7 +6265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5367,7 +6299,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +6335,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5439,7 +6371,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5475,7 +6407,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5499,7 +6431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5523,7 +6455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5547,7 +6479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5571,7 +6503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -5595,7 +6527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5619,7 +6551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -5643,7 +6575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>

--- a/ИТ/Панков Вася Крутой.xlsx
+++ b/ИТ/Панков Вася Крутой.xlsx
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -275,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,267 +552,25 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Панков Вася Крутой.xlsx]Индивидуальное задание!СводнаяТаблица7</c:name>
-    <c:fmtId val="16"/>
-  </c:pivotSource>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43803455818022746"/>
-          <c:y val="5.8143773694954798E-2"/>
+          <c:x val="0.29366532397505746"/>
+          <c:y val="0.10680664916885389"/>
+          <c:w val="0.41836172797753801"/>
+          <c:h val="0.68048337707786521"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Индивидуальное задание'!$J$3:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Первый</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -819,17 +578,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -839,17 +593,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -859,22 +608,71 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Индивидуальное задание'!$I$6:$I$9</c:f>
+              <c:f>'Индивидуальное задание'!$I$6:$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -891,7 +689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Индивидуальное задание'!$J$6:$J$9</c:f>
+              <c:f>'Индивидуальное задание'!$V$4:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -899,117 +697,10 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Индивидуальное задание'!$K$3:$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Второй</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Индивидуальное задание'!$I$6:$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>молоко </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>мясо </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>рыба </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Индивидуальное задание'!$K$6:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,14 +708,15 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1034,7 +726,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1048,7 +740,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1099,17 +791,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1713,7 +1394,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2271,19 +1952,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>154516</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>122766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3603,7 +3284,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="27">
   <location ref="I3:L9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0">
@@ -3688,7 +3369,7 @@
   <dataFields count="1">
     <dataField name="Сумма по полю Прибыль" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="25">
     <chartFormat chart="12" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -3846,6 +3527,162 @@
             <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -4151,7 +3988,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6099,10 +5936,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6110,13 +5947,14 @@
     <col min="9" max="9" width="22.3515625" customWidth="1"/>
     <col min="10" max="11" width="9.703125" customWidth="1"/>
     <col min="12" max="12" width="10.76171875" customWidth="1"/>
-    <col min="13" max="14" width="11.87890625" customWidth="1"/>
+    <col min="13" max="13" width="11.46875" customWidth="1"/>
+    <col min="14" max="14" width="10.76171875" customWidth="1"/>
     <col min="15" max="15" width="10.29296875" customWidth="1"/>
     <col min="16" max="16" width="11.87890625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="72.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -6145,7 +5983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6237,8 +6075,12 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="V4" s="11">
+        <f>L6</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -6264,8 +6106,12 @@
       <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="V5" s="11">
+        <f>L7</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6298,8 +6144,12 @@
       <c r="L6" s="9">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+      <c r="V6" s="11">
+        <f>L8</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6335,7 +6185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6371,7 +6221,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6407,7 +6257,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -6431,7 +6281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -6455,7 +6305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +6353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -6527,7 +6377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30.7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" ht="30.7" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
